--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1069.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1069.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.642586311558798</v>
+        <v>1.197282791137695</v>
       </c>
       <c r="B1">
+        <v>2.60010552406311</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>2.533606383891364</v>
-      </c>
       <c r="D1">
-        <v>1.571289148499406</v>
+        <v>2.184739589691162</v>
       </c>
       <c r="E1">
-        <v>1.256461601824944</v>
+        <v>1.176159024238586</v>
       </c>
     </row>
   </sheetData>
